--- a/Sprider  爪巴/flj.xlsx
+++ b/Sprider  爪巴/flj.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Desktop\py文件\Sprider  爪巴\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9B6FE7-2B4B-4C71-8FEB-C2B5B7B4E2BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2189AE-C0D8-4810-8C54-297CAFF656EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="百度云版" sheetId="1" r:id="rId1"/>
+    <sheet name="黑料姬网盘" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="329">
   <si>
     <t>地址</t>
   </si>
@@ -670,364 +671,398 @@
     <t>回复12获取解压密码mY2rIjcO0SHA128a</t>
   </si>
   <si>
+    <t>福利姬少女映画</t>
+  </si>
+  <si>
+    <t>回复11获取解压密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1YRK78YometrXBrFAkhdHnQ</t>
+  </si>
+  <si>
+    <t>7rkx</t>
+  </si>
+  <si>
+    <t>福利姬柚木Yuzuki</t>
+  </si>
+  <si>
+    <t>回复8获取解压密码</t>
+  </si>
+  <si>
+    <t>5f4y</t>
+  </si>
+  <si>
+    <t>86z4</t>
+  </si>
+  <si>
+    <t>34es</t>
+  </si>
+  <si>
+    <t>福利姬习呆呆</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1Xn5EfqELoCmbeL0A6iXGnQ</t>
+  </si>
+  <si>
+    <t>dr3t</t>
+  </si>
+  <si>
+    <t>福利姬过期米线线喵</t>
+  </si>
+  <si>
+    <t>回复1获取解压密码RoQwYh0OsHgQlfbu</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/xg4sM?path=%2F</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>福利姬ATFMaker</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/vX1sW?path=%2F</t>
+  </si>
+  <si>
+    <t>福利姬萝莉邻座怪阿松（怪蜀黍的乖萝莉）</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/ko6CN?path=%2F</t>
+  </si>
+  <si>
+    <t>福利姬萌萌的奶卉</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/887TM?path=%2F</t>
+  </si>
+  <si>
+    <t>福利姬小蔡头喵喵</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/0y9cZ?path=%2F</t>
+  </si>
+  <si>
+    <t>福利姬小鸟酱</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/z6VCe?path=%2F</t>
+  </si>
+  <si>
+    <t>福利姬星之迟迟</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/O2MuV?path=%2F</t>
+  </si>
+  <si>
+    <t>福利姬赤酒央子</t>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/147J5xWXh4ZyEitYposSwDw</t>
+  </si>
+  <si>
+    <t>tmdp</t>
+  </si>
+  <si>
+    <t>福利姬喵喵er</t>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1IawsFJddfurEciewP3aydw</t>
+  </si>
+  <si>
+    <t>m8pq</t>
+  </si>
+  <si>
+    <t>福利姬叫我脚丫子</t>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1eLXqMBqDPkuoOLHOk-tHUw</t>
+  </si>
+  <si>
+    <t>ksys</t>
+  </si>
+  <si>
+    <t>福利姬猫性少女</t>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1mab9RfeSlSGra6ovsUCHyQ</t>
+  </si>
+  <si>
+    <t>jdvv</t>
+  </si>
+  <si>
+    <t>福利姬眼酱大魔王</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/eBpHK?path=%2F</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬JK邪魔暖暖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复75获取解压密码</t>
+  </si>
+  <si>
+    <t>回复74获取解压密码</t>
+  </si>
+  <si>
+    <t>回复73获取解压密码</t>
+  </si>
+  <si>
+    <t>回复72获取解压密码</t>
+  </si>
+  <si>
+    <t>回复71获取解压密码</t>
+  </si>
+  <si>
+    <t>回复70获取解压密码</t>
+  </si>
+  <si>
+    <t>回复69获取解压密码</t>
+  </si>
+  <si>
+    <t>回复68获取解压密码</t>
+  </si>
+  <si>
+    <t>回复67获取解压密码</t>
+  </si>
+  <si>
+    <t>回复66获取解压密码</t>
+  </si>
+  <si>
+    <t>回复65获取解压密码</t>
+  </si>
+  <si>
+    <t>回复64获取解压密码</t>
+  </si>
+  <si>
+    <t>回复13获取解压密码BtwR1AyNHSxIzXTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复14获取解压密码9owiZ4Iu8TtOYjdq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复15获取解压密码ErLXcwsvstP8iIX3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复16获取解压密码MfmOI6CIXlY8qOIm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://pan.baidu.com/s/1ty2xqre10FbajwQsBYT4Ow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t882</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复2获取解压密码6B4jzulTGhw0UYrr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬Shika小鹿鹿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1K6ldwaIowMJr1UYCf2RFow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p3f9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复3获取解压密码YmYdqnod1lNM4E90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬麻花酱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pg0s</t>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1SvFx3qVkVFR8vSZvmuhK_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬きょう肉肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复78获取解压密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1C-BlyvljbqkcVtUjMFahWw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6p1p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬runa</t>
+  </si>
+  <si>
+    <t>回复77获取解压密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1Bnqby1gRUbjSLDFu1vTwrQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬铭铭Kizami</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复76获取解压密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/15AULEi-0Jsd2FBTUGGbZEg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88wn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推女郎合集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复80获取解压密码</t>
+  </si>
+  <si>
+    <t>福利姬利世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2kak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1OCc1znkHh5-eSHZRHH9a3g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复79获取解压密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1OyElOIh84ZUTo8o2-rd5dg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ueWr1bnwBr281KlF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>myku</t>
-  </si>
-  <si>
-    <t>福利姬少女映画</t>
-  </si>
-  <si>
-    <t>回复11获取解压密码</t>
-  </si>
-  <si>
-    <t>ueWr1bnwBr281KlF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IW5PyuWWRj4VDz17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bo8zgC4nLjIAgYZK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>O1yk0ZAgcGfdMlOX</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1YRK78YometrXBrFAkhdHnQ</t>
-  </si>
-  <si>
-    <t>7rkx</t>
-  </si>
-  <si>
-    <t>福利姬柚木Yuzuki</t>
-  </si>
-  <si>
-    <t>回复8获取解压密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1DZmPtFzEewL42i7wRBKKuQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3vfh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬原来是茜公举殿下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复4获取解压密码fCduSQdW4az8ZPfj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1QCtWb4ifOAIIkvs4bG4sQw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8ngt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬元气小奈音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复5获取解压密码9jDIz0V6KckRBYgv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1ARAZcR2d6OxONyphespE5Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复6获取解压密码9b2IExfQyKFFEbtZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1bkpLMmbwGySgnaD_QpLM0g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬饲育系少女X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复7获取解压密码BnTwjMks1Q2IsHSG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> pan.baidu.com/s/1iIvLK0lFLDbbvekRqIbNpA</t>
-  </si>
-  <si>
-    <t>5f4y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>福利姬完具少女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>回复9获取解压密码3P84QeQyn6eKaP9Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1bkpLMmbwGySgnaD_QpLM0g</t>
-  </si>
-  <si>
-    <t>86z4</t>
-  </si>
-  <si>
-    <t>福利姬饲育系少女X</t>
-  </si>
-  <si>
-    <t>回复7获取解压密码BnTwjMks1Q2IsHSG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1ARAZcR2d6OxONyphespE5Q</t>
-  </si>
-  <si>
-    <t>34es</t>
-  </si>
-  <si>
-    <t>福利姬习呆呆</t>
-  </si>
-  <si>
-    <t>回复6获取解压密码9b2IExfQyKFFEbtZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1QCtWb4ifOAIIkvs4bG4sQw</t>
-  </si>
-  <si>
-    <t>8ngt</t>
-  </si>
-  <si>
-    <t>福利姬元气小奈音</t>
-  </si>
-  <si>
-    <t>回复5获取解压密码9jDIz0V6KckRBYgv</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1DZmPtFzEewL42i7wRBKKuQ</t>
-  </si>
-  <si>
-    <t>3vfh</t>
-  </si>
-  <si>
-    <t>福利姬原来是茜公举殿下</t>
-  </si>
-  <si>
-    <t>回复4获取解压密码fCduSQdW4az8ZPfj</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1Xn5EfqELoCmbeL0A6iXGnQ</t>
-  </si>
-  <si>
-    <t>dr3t</t>
-  </si>
-  <si>
-    <t>福利姬过期米线线喵</t>
-  </si>
-  <si>
-    <t>回复1获取解压密码RoQwYh0OsHgQlfbu</t>
-  </si>
-  <si>
-    <t>https://pan.1flj.fun/#/s/xg4sM?path=%2F</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>福利姬ATFMaker</t>
-  </si>
-  <si>
-    <t>https://pan.1flj.fun/#/s/vX1sW?path=%2F</t>
-  </si>
-  <si>
-    <t>福利姬萝莉邻座怪阿松（怪蜀黍的乖萝莉）</t>
-  </si>
-  <si>
-    <t>https://pan.1flj.fun/#/s/ko6CN?path=%2F</t>
-  </si>
-  <si>
-    <t>福利姬萌萌的奶卉</t>
-  </si>
-  <si>
-    <t>https://pan.1flj.fun/#/s/887TM?path=%2F</t>
-  </si>
-  <si>
-    <t>福利姬小蔡头喵喵</t>
-  </si>
-  <si>
-    <t>https://pan.1flj.fun/#/s/0y9cZ?path=%2F</t>
-  </si>
-  <si>
-    <t>福利姬小鸟酱</t>
-  </si>
-  <si>
-    <t>https://pan.1flj.fun/#/s/z6VCe?path=%2F</t>
-  </si>
-  <si>
-    <t>福利姬星之迟迟</t>
-  </si>
-  <si>
-    <t>https://pan.1flj.fun/#/s/O2MuV?path=%2F</t>
-  </si>
-  <si>
-    <t>福利姬赤酒央子</t>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/147J5xWXh4ZyEitYposSwDw</t>
-  </si>
-  <si>
-    <t>tmdp</t>
-  </si>
-  <si>
-    <t>福利姬喵喵er</t>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/1IawsFJddfurEciewP3aydw</t>
-  </si>
-  <si>
-    <t>m8pq</t>
-  </si>
-  <si>
-    <t>福利姬叫我脚丫子</t>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/1eLXqMBqDPkuoOLHOk-tHUw</t>
-  </si>
-  <si>
-    <t>ksys</t>
-  </si>
-  <si>
-    <t>福利姬猫性少女</t>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/1mab9RfeSlSGra6ovsUCHyQ</t>
-  </si>
-  <si>
-    <t>jdvv</t>
-  </si>
-  <si>
-    <t>福利姬眼酱大魔王</t>
-  </si>
-  <si>
-    <t>https://pan.1flj.fun/#/s/eBpHK?path=%2F</t>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬JK邪魔暖暖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复75获取解压密码</t>
-  </si>
-  <si>
-    <t>回复74获取解压密码</t>
-  </si>
-  <si>
-    <t>回复73获取解压密码</t>
-  </si>
-  <si>
-    <t>回复72获取解压密码</t>
-  </si>
-  <si>
-    <t>回复71获取解压密码</t>
-  </si>
-  <si>
-    <t>回复70获取解压密码</t>
-  </si>
-  <si>
-    <t>回复69获取解压密码</t>
-  </si>
-  <si>
-    <t>回复68获取解压密码</t>
-  </si>
-  <si>
-    <t>回复67获取解压密码</t>
-  </si>
-  <si>
-    <t>回复66获取解压密码</t>
-  </si>
-  <si>
-    <t>回复65获取解压密码</t>
-  </si>
-  <si>
-    <t>回复64获取解压密码</t>
-  </si>
-  <si>
-    <t>回复13获取解压密码BtwR1AyNHSxIzXTM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复14获取解压密码9owiZ4Iu8TtOYjdq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复15获取解压密码ErLXcwsvstP8iIX3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复16获取解压密码MfmOI6CIXlY8qOIm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://pan.baidu.com/s/1ty2xqre10FbajwQsBYT4Ow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t882</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复2获取解压密码6B4jzulTGhw0UYrr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬Shika小鹿鹿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1K6ldwaIowMJr1UYCf2RFow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p3f9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复3获取解压密码YmYdqnod1lNM4E90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬麻花酱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pg0s</t>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/1SvFx3qVkVFR8vSZvmuhK_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬きょう肉肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复78获取解压密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/1C-BlyvljbqkcVtUjMFahWw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6p1p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬runa</t>
-  </si>
-  <si>
-    <t>回复77获取解压密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/1Bnqby1gRUbjSLDFu1vTwrQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t850</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬铭铭Kizami</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复76获取解压密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/15AULEi-0Jsd2FBTUGGbZEg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88wn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推女郎合集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复80获取解压密码</t>
-  </si>
-  <si>
-    <t>福利姬利世</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2kak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/1OCc1znkHh5-eSHZRHH9a3g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复79获取解压密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1419,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2145,7 +2180,7 @@
         <v>202</v>
       </c>
       <c r="D51" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2159,7 +2194,7 @@
         <v>205</v>
       </c>
       <c r="D52" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2173,7 +2208,7 @@
         <v>208</v>
       </c>
       <c r="D53" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2187,7 +2222,7 @@
         <v>211</v>
       </c>
       <c r="D54" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2206,392 +2241,392 @@
     </row>
     <row r="56" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
+        <v>304</v>
+      </c>
+      <c r="B56" t="s">
+        <v>309</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" t="s">
         <v>217</v>
       </c>
-      <c r="C56" t="s">
-        <v>218</v>
-      </c>
-      <c r="D56" t="s">
-        <v>219</v>
-      </c>
       <c r="E56" s="1" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>221</v>
+        <v>310</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>222</v>
+        <v>311</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>223</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D57" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>228</v>
+        <v>326</v>
       </c>
       <c r="B58" t="s">
-        <v>229</v>
-      </c>
-      <c r="C58" t="s">
-        <v>230</v>
+        <v>222</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>327</v>
       </c>
       <c r="D58" t="s">
-        <v>231</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>232</v>
+        <v>323</v>
       </c>
       <c r="B59" t="s">
-        <v>233</v>
-      </c>
-      <c r="C59" t="s">
-        <v>234</v>
+        <v>223</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="D59" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>236</v>
+        <v>321</v>
       </c>
       <c r="B60" t="s">
-        <v>237</v>
-      </c>
-      <c r="C60" t="s">
-        <v>238</v>
+        <v>224</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="D60" t="s">
-        <v>239</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>240</v>
+        <v>317</v>
       </c>
       <c r="B61" t="s">
-        <v>241</v>
-      </c>
-      <c r="C61" t="s">
-        <v>242</v>
+        <v>318</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="D61" t="s">
-        <v>243</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>244</v>
+        <v>313</v>
       </c>
       <c r="B62" t="s">
-        <v>245</v>
-      </c>
-      <c r="C62" t="s">
-        <v>246</v>
+        <v>314</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="D62" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="B63" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D63" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="B64" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="D64" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B65" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="D65" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="B66" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="C66" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="D66" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="B67" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C67" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="D67" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="B68" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C68" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="D68" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="B69" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C69" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="D69" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="B70" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C70" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="D70" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B71" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C71" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D71" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="B72" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C72" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="D72" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="B73" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C73" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="D73" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="B74" t="s">
+        <v>246</v>
+      </c>
+      <c r="C74" t="s">
+        <v>247</v>
+      </c>
+      <c r="D74" t="s">
         <v>268</v>
-      </c>
-      <c r="C74" t="s">
-        <v>269</v>
-      </c>
-      <c r="D74" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="B75" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="C75" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="D75" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="B76" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="C76" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="D76" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="B77" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="C77" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="D77" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C78" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="B79" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B80" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C80" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="B81" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="B82" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2609,4 +2644,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2768E4DD-5C19-426B-BEB9-99BF0B9E3EA1}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Sprider  爪巴/flj.xlsx
+++ b/Sprider  爪巴/flj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Desktop\py文件\Sprider  爪巴\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2189AE-C0D8-4810-8C54-297CAFF656EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9B6BBF-3074-4071-8023-DA0632DFBD35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="345">
   <si>
     <t>地址</t>
   </si>
@@ -524,545 +524,621 @@
     <t>福利姬恶犬</t>
   </si>
   <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1qPrHxchzhtyUdhz9Iom4KQ </t>
+  </si>
+  <si>
+    <t>xp1e</t>
+  </si>
+  <si>
+    <t>福利姬萌汁</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1wI2vjYD_uXcKGiKP2aHl5A</t>
+  </si>
+  <si>
+    <t>hkxv</t>
+  </si>
+  <si>
+    <t>福利姬三寸萝莉</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1O1bVuyIDeMbgtqXdNQduZQ</t>
+  </si>
+  <si>
+    <t>3k5k</t>
+  </si>
+  <si>
+    <t>福利姬Ran冉酱</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1_tTQb-rJQk4CzmsyA94QZQ</t>
+  </si>
+  <si>
+    <t>qo2l</t>
+  </si>
+  <si>
+    <t>福利姬吃一口兔子</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1TWiEnbFAYMu0fl4aRy41vA</t>
+  </si>
+  <si>
+    <t>2q6m</t>
+  </si>
+  <si>
+    <t>福利姬隔壁小姐姐</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1G7MwELS1BVX3kKsyGy4RGw</t>
+  </si>
+  <si>
+    <t>f0tw</t>
+  </si>
+  <si>
+    <t>福利姬猫女王的日常</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/19VYxpiPxXE9yanBTnQ-Z0w</t>
+  </si>
+  <si>
+    <t>t7sm</t>
+  </si>
+  <si>
+    <t>福利姬萌白酱（甜味弥漫）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1UZf8_zAy-VWKi3SKHqv64A</t>
+  </si>
+  <si>
+    <t>t5ef</t>
+  </si>
+  <si>
+    <t>福利姬私人玩物</t>
+  </si>
+  <si>
+    <t>回复10获取解压密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1idk-N7cTn_m2qQLfOALxEQ</t>
+  </si>
+  <si>
+    <t>i5rk</t>
+  </si>
+  <si>
+    <t>福利姬芝麻酱</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1iARO_caYg_nQJXJZewiq1A</t>
+  </si>
+  <si>
+    <t>7a09</t>
+  </si>
+  <si>
+    <t>福利姬我是你可爱的小猫</t>
+  </si>
+  <si>
+    <t>cdcv</t>
+  </si>
+  <si>
+    <t>福利姬由衣酱yu1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://pan.baidu.com/s/1QO5NvcNJr0UM31MHrti-1A</t>
+  </si>
+  <si>
+    <t>qbmd</t>
+  </si>
+  <si>
+    <t>福利姬桜井寧寧</t>
+  </si>
+  <si>
+    <t>回复12获取解压密码mY2rIjcO0SHA128a</t>
+  </si>
+  <si>
+    <t>福利姬少女映画</t>
+  </si>
+  <si>
+    <t>回复11获取解压密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1YRK78YometrXBrFAkhdHnQ</t>
+  </si>
+  <si>
+    <t>7rkx</t>
+  </si>
+  <si>
+    <t>福利姬柚木Yuzuki</t>
+  </si>
+  <si>
+    <t>回复8获取解压密码</t>
+  </si>
+  <si>
+    <t>5f4y</t>
+  </si>
+  <si>
+    <t>86z4</t>
+  </si>
+  <si>
+    <t>34es</t>
+  </si>
+  <si>
+    <t>福利姬习呆呆</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1Xn5EfqELoCmbeL0A6iXGnQ</t>
+  </si>
+  <si>
+    <t>dr3t</t>
+  </si>
+  <si>
+    <t>福利姬过期米线线喵</t>
+  </si>
+  <si>
+    <t>回复1获取解压密码RoQwYh0OsHgQlfbu</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/xg4sM?path=%2F</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>福利姬ATFMaker</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/vX1sW?path=%2F</t>
+  </si>
+  <si>
+    <t>福利姬萝莉邻座怪阿松（怪蜀黍的乖萝莉）</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/ko6CN?path=%2F</t>
+  </si>
+  <si>
+    <t>福利姬萌萌的奶卉</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/887TM?path=%2F</t>
+  </si>
+  <si>
+    <t>福利姬小蔡头喵喵</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/0y9cZ?path=%2F</t>
+  </si>
+  <si>
+    <t>福利姬小鸟酱</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/z6VCe?path=%2F</t>
+  </si>
+  <si>
+    <t>福利姬星之迟迟</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/O2MuV?path=%2F</t>
+  </si>
+  <si>
+    <t>福利姬赤酒央子</t>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/147J5xWXh4ZyEitYposSwDw</t>
+  </si>
+  <si>
+    <t>tmdp</t>
+  </si>
+  <si>
+    <t>福利姬喵喵er</t>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1IawsFJddfurEciewP3aydw</t>
+  </si>
+  <si>
+    <t>m8pq</t>
+  </si>
+  <si>
+    <t>福利姬叫我脚丫子</t>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1eLXqMBqDPkuoOLHOk-tHUw</t>
+  </si>
+  <si>
+    <t>ksys</t>
+  </si>
+  <si>
+    <t>福利姬猫性少女</t>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1mab9RfeSlSGra6ovsUCHyQ</t>
+  </si>
+  <si>
+    <t>jdvv</t>
+  </si>
+  <si>
+    <t>福利姬眼酱大魔王</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/eBpHK?path=%2F</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬JK邪魔暖暖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复75获取解压密码</t>
+  </si>
+  <si>
+    <t>回复74获取解压密码</t>
+  </si>
+  <si>
+    <t>回复73获取解压密码</t>
+  </si>
+  <si>
+    <t>回复72获取解压密码</t>
+  </si>
+  <si>
+    <t>回复71获取解压密码</t>
+  </si>
+  <si>
+    <t>回复70获取解压密码</t>
+  </si>
+  <si>
+    <t>回复69获取解压密码</t>
+  </si>
+  <si>
+    <t>回复68获取解压密码</t>
+  </si>
+  <si>
+    <t>回复67获取解压密码</t>
+  </si>
+  <si>
+    <t>回复66获取解压密码</t>
+  </si>
+  <si>
+    <t>回复65获取解压密码</t>
+  </si>
+  <si>
+    <t>回复64获取解压密码</t>
+  </si>
+  <si>
+    <t>回复13获取解压密码BtwR1AyNHSxIzXTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复14获取解压密码9owiZ4Iu8TtOYjdq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复15获取解压密码ErLXcwsvstP8iIX3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复16获取解压密码MfmOI6CIXlY8qOIm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://pan.baidu.com/s/1ty2xqre10FbajwQsBYT4Ow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t882</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复2获取解压密码6B4jzulTGhw0UYrr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬Shika小鹿鹿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1K6ldwaIowMJr1UYCf2RFow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p3f9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复3获取解压密码YmYdqnod1lNM4E90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬麻花酱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pg0s</t>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1SvFx3qVkVFR8vSZvmuhK_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬きょう肉肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复78获取解压密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1C-BlyvljbqkcVtUjMFahWw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6p1p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬runa</t>
+  </si>
+  <si>
+    <t>回复77获取解压密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1Bnqby1gRUbjSLDFu1vTwrQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬铭铭Kizami</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复76获取解压密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/15AULEi-0Jsd2FBTUGGbZEg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88wn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推女郎合集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复80获取解压密码</t>
+  </si>
+  <si>
+    <t>福利姬利世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2kak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1OCc1znkHh5-eSHZRHH9a3g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1OyElOIh84ZUTo8o2-rd5dg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ueWr1bnwBr281KlF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myku</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IW5PyuWWRj4VDz17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bo8zgC4nLjIAgYZK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O1yk0ZAgcGfdMlOX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1DZmPtFzEewL42i7wRBKKuQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3vfh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬原来是茜公举殿下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复4获取解压密码fCduSQdW4az8ZPfj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1QCtWb4ifOAIIkvs4bG4sQw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8ngt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬元气小奈音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复5获取解压密码9jDIz0V6KckRBYgv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1ARAZcR2d6OxONyphespE5Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复6获取解压密码9b2IExfQyKFFEbtZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1bkpLMmbwGySgnaD_QpLM0g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬饲育系少女X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复7获取解压密码BnTwjMks1Q2IsHSG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1iIvLK0lFLDbbvekRqIbNpA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬完具少女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复9获取解压密码3P84QeQyn6eKaP9Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复79获取解压密码E2UPvn5h7u3JfvvO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-7  ueWr1bnwBr281KlF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-14  IW5PyuWWRj4VDz17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-21  bo8zgC4nLjIAgYZK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22-27  O1yk0ZAgcGfdMlOX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复17获取解压密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复18获取解压密码82MgxIM1lvatNWPV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复19获取解压密码nJjf59mI40MsxWRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复20获取解压密码0py0PcPjoWeVTMAq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复22获取解压密码w1Ik5wEePGGd9UGS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复21获取解压密码8SI9dva0gJTZYWdY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复23获取解压密码bqWJPVkUhQtWcMQk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>回复24获取解压密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1qPrHxchzhtyUdhz9Iom4KQ </t>
-  </si>
-  <si>
-    <t>xp1e</t>
-  </si>
-  <si>
-    <t>福利姬萌汁</t>
-  </si>
-  <si>
-    <t>回复23获取解压密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1wI2vjYD_uXcKGiKP2aHl5A</t>
-  </si>
-  <si>
-    <t>hkxv</t>
-  </si>
-  <si>
-    <t>福利姬三寸萝莉</t>
-  </si>
-  <si>
-    <t>回复21获取解压密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1O1bVuyIDeMbgtqXdNQduZQ</t>
-  </si>
-  <si>
-    <t>3k5k</t>
-  </si>
-  <si>
-    <t>福利姬Ran冉酱</t>
-  </si>
-  <si>
-    <t>回复22获取解压密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1_tTQb-rJQk4CzmsyA94QZQ</t>
-  </si>
-  <si>
-    <t>qo2l</t>
-  </si>
-  <si>
-    <t>福利姬吃一口兔子</t>
-  </si>
-  <si>
-    <t>回复20获取解压密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1TWiEnbFAYMu0fl4aRy41vA</t>
-  </si>
-  <si>
-    <t>2q6m</t>
-  </si>
-  <si>
-    <t>福利姬隔壁小姐姐</t>
-  </si>
-  <si>
-    <t>回复19获取解压密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1G7MwELS1BVX3kKsyGy4RGw</t>
-  </si>
-  <si>
-    <t>f0tw</t>
-  </si>
-  <si>
-    <t>福利姬猫女王的日常</t>
-  </si>
-  <si>
-    <t>回复18获取解压密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/19VYxpiPxXE9yanBTnQ-Z0w</t>
-  </si>
-  <si>
-    <t>t7sm</t>
-  </si>
-  <si>
-    <t>福利姬萌白酱（甜味弥漫）</t>
-  </si>
-  <si>
-    <t>回复17获取解压密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1UZf8_zAy-VWKi3SKHqv64A</t>
-  </si>
-  <si>
-    <t>t5ef</t>
-  </si>
-  <si>
-    <t>福利姬私人玩物</t>
-  </si>
-  <si>
-    <t>回复10获取解压密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1idk-N7cTn_m2qQLfOALxEQ</t>
-  </si>
-  <si>
-    <t>i5rk</t>
-  </si>
-  <si>
-    <t>福利姬芝麻酱</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1iARO_caYg_nQJXJZewiq1A</t>
-  </si>
-  <si>
-    <t>7a09</t>
-  </si>
-  <si>
-    <t>福利姬我是你可爱的小猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1xuGLgQIGzQQfogLiQjhDZQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1fo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> pan.baidu.com/s/1XDs6OeZhFpbQlt6kZWA8_g</t>
-  </si>
-  <si>
-    <t>cdcv</t>
-  </si>
-  <si>
-    <t>福利姬由衣酱yu1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1xuGLgQIGzQQfogLiQjhDZQ</t>
-  </si>
-  <si>
-    <t>1fo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>福利姬西尔酱</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://pan.baidu.com/s/1QO5NvcNJr0UM31MHrti-1A</t>
-  </si>
-  <si>
-    <t>qbmd</t>
-  </si>
-  <si>
-    <t>福利姬桜井寧寧</t>
-  </si>
-  <si>
-    <t>回复12获取解压密码mY2rIjcO0SHA128a</t>
-  </si>
-  <si>
-    <t>福利姬少女映画</t>
-  </si>
-  <si>
-    <t>回复11获取解压密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1YRK78YometrXBrFAkhdHnQ</t>
-  </si>
-  <si>
-    <t>7rkx</t>
-  </si>
-  <si>
-    <t>福利姬柚木Yuzuki</t>
-  </si>
-  <si>
-    <t>回复8获取解压密码</t>
-  </si>
-  <si>
-    <t>5f4y</t>
-  </si>
-  <si>
-    <t>86z4</t>
-  </si>
-  <si>
-    <t>34es</t>
-  </si>
-  <si>
-    <t>福利姬习呆呆</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1Xn5EfqELoCmbeL0A6iXGnQ</t>
-  </si>
-  <si>
-    <t>dr3t</t>
-  </si>
-  <si>
-    <t>福利姬过期米线线喵</t>
-  </si>
-  <si>
-    <t>回复1获取解压密码RoQwYh0OsHgQlfbu</t>
-  </si>
-  <si>
-    <t>https://pan.1flj.fun/#/s/xg4sM?path=%2F</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>福利姬ATFMaker</t>
-  </si>
-  <si>
-    <t>https://pan.1flj.fun/#/s/vX1sW?path=%2F</t>
-  </si>
-  <si>
-    <t>福利姬萝莉邻座怪阿松（怪蜀黍的乖萝莉）</t>
-  </si>
-  <si>
-    <t>https://pan.1flj.fun/#/s/ko6CN?path=%2F</t>
-  </si>
-  <si>
-    <t>福利姬萌萌的奶卉</t>
-  </si>
-  <si>
-    <t>https://pan.1flj.fun/#/s/887TM?path=%2F</t>
-  </si>
-  <si>
-    <t>福利姬小蔡头喵喵</t>
-  </si>
-  <si>
-    <t>https://pan.1flj.fun/#/s/0y9cZ?path=%2F</t>
-  </si>
-  <si>
-    <t>福利姬小鸟酱</t>
-  </si>
-  <si>
-    <t>https://pan.1flj.fun/#/s/z6VCe?path=%2F</t>
-  </si>
-  <si>
-    <t>福利姬星之迟迟</t>
-  </si>
-  <si>
-    <t>https://pan.1flj.fun/#/s/O2MuV?path=%2F</t>
-  </si>
-  <si>
-    <t>福利姬赤酒央子</t>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/147J5xWXh4ZyEitYposSwDw</t>
-  </si>
-  <si>
-    <t>tmdp</t>
-  </si>
-  <si>
-    <t>福利姬喵喵er</t>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/1IawsFJddfurEciewP3aydw</t>
-  </si>
-  <si>
-    <t>m8pq</t>
-  </si>
-  <si>
-    <t>福利姬叫我脚丫子</t>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/1eLXqMBqDPkuoOLHOk-tHUw</t>
-  </si>
-  <si>
-    <t>ksys</t>
-  </si>
-  <si>
-    <t>福利姬猫性少女</t>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/1mab9RfeSlSGra6ovsUCHyQ</t>
-  </si>
-  <si>
-    <t>jdvv</t>
-  </si>
-  <si>
-    <t>福利姬眼酱大魔王</t>
-  </si>
-  <si>
-    <t>https://pan.1flj.fun/#/s/eBpHK?path=%2F</t>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬JK邪魔暖暖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复75获取解压密码</t>
-  </si>
-  <si>
-    <t>回复74获取解压密码</t>
-  </si>
-  <si>
-    <t>回复73获取解压密码</t>
-  </si>
-  <si>
-    <t>回复72获取解压密码</t>
-  </si>
-  <si>
-    <t>回复71获取解压密码</t>
-  </si>
-  <si>
-    <t>回复70获取解压密码</t>
-  </si>
-  <si>
-    <t>回复69获取解压密码</t>
-  </si>
-  <si>
-    <t>回复68获取解压密码</t>
-  </si>
-  <si>
-    <t>回复67获取解压密码</t>
-  </si>
-  <si>
-    <t>回复66获取解压密码</t>
-  </si>
-  <si>
-    <t>回复65获取解压密码</t>
-  </si>
-  <si>
-    <t>回复64获取解压密码</t>
-  </si>
-  <si>
-    <t>回复13获取解压密码BtwR1AyNHSxIzXTM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复14获取解压密码9owiZ4Iu8TtOYjdq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复15获取解压密码ErLXcwsvstP8iIX3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复16获取解压密码MfmOI6CIXlY8qOIm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://pan.baidu.com/s/1ty2xqre10FbajwQsBYT4Ow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t882</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复2获取解压密码6B4jzulTGhw0UYrr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬Shika小鹿鹿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1K6ldwaIowMJr1UYCf2RFow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p3f9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复3获取解压密码YmYdqnod1lNM4E90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬麻花酱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pg0s</t>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/1SvFx3qVkVFR8vSZvmuhK_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬きょう肉肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复78获取解压密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/1C-BlyvljbqkcVtUjMFahWw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6p1p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬runa</t>
-  </si>
-  <si>
-    <t>回复77获取解压密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/1Bnqby1gRUbjSLDFu1vTwrQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t850</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬铭铭Kizami</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复76获取解压密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/15AULEi-0Jsd2FBTUGGbZEg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88wn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推女郎合集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复80获取解压密码</t>
-  </si>
-  <si>
-    <t>福利姬利世</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2kak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/1OCc1znkHh5-eSHZRHH9a3g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复79获取解压密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1OyElOIh84ZUTo8o2-rd5dg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ueWr1bnwBr281KlF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myku</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IW5PyuWWRj4VDz17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bo8zgC4nLjIAgYZK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O1yk0ZAgcGfdMlOX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1DZmPtFzEewL42i7wRBKKuQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3vfh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬原来是茜公举殿下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复4获取解压密码fCduSQdW4az8ZPfj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1QCtWb4ifOAIIkvs4bG4sQw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8ngt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬元气小奈音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复5获取解压密码9jDIz0V6KckRBYgv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1ARAZcR2d6OxONyphespE5Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复6获取解压密码9b2IExfQyKFFEbtZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1bkpLMmbwGySgnaD_QpLM0g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬饲育系少女X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复7获取解压密码BnTwjMks1Q2IsHSG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1iIvLK0lFLDbbvekRqIbNpA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬完具少女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复9获取解压密码3P84QeQyn6eKaP9Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/14knP0lamwq4RYkpcVI1_xQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s736</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬白袜袜格罗丫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1wueCdFolc_K_Cz_ADefebQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9rhx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻豆合集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>madou.in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复82获取解压密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1-5HYa8H3tMIFj3OWjTgJlw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tnhv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬面饼仙儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复81获取解压密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1129,7 +1205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1148,6 +1224,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1162,7 +1244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1171,6 +1253,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1452,21 +1536,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="85.44140625" customWidth="1"/>
     <col min="3" max="3" width="39.109375" customWidth="1"/>
-    <col min="4" max="4" width="36.88671875" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2054,579 +2138,633 @@
         <v>166</v>
       </c>
       <c r="D42" t="s">
-        <v>167</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" t="s">
         <v>168</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>169</v>
       </c>
-      <c r="C43" t="s">
-        <v>170</v>
-      </c>
       <c r="D43" t="s">
-        <v>171</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" t="s">
         <v>172</v>
       </c>
-      <c r="B44" t="s">
-        <v>173</v>
-      </c>
-      <c r="C44" t="s">
-        <v>174</v>
-      </c>
       <c r="D44" t="s">
-        <v>175</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C45" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D45" t="s">
-        <v>179</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B46" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D46" t="s">
-        <v>183</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B47" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C47" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D47" t="s">
-        <v>187</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B48" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C48" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D48" t="s">
-        <v>191</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B49" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D49" t="s">
-        <v>195</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B50" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C50" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D50" t="s">
-        <v>199</v>
+        <v>191</v>
+      </c>
+      <c r="E50" t="s">
+        <v>317</v>
+      </c>
+      <c r="F50" t="s">
+        <v>318</v>
+      </c>
+      <c r="G50" t="s">
+        <v>319</v>
+      </c>
+      <c r="H50" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B51" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C51" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D51" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B52" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C52" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D52" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>206</v>
+        <v>331</v>
       </c>
       <c r="B53" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C53" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D53" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>209</v>
+        <v>329</v>
       </c>
       <c r="B54" t="s">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="C54" t="s">
-        <v>211</v>
+        <v>332</v>
       </c>
       <c r="D54" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B55" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D55" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B56" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D56" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B57" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D57" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="B58" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="D58" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B59" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="D59" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B60" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D60" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="B61" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="D61" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="B62" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="D62" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B63" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D63" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B64" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D64" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B65" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D65" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B66" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C66" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D66" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B67" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C67" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D67" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B68" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C68" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D68" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B69" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C69" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D69" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B70" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C70" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D70" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B71" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C71" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D71" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B72" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C72" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D72" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B73" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C73" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D73" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B74" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C74" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D74" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B75" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C75" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D75" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B76" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C76" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D76" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B77" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C77" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D77" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C78" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B79" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B80" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C80" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B81" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B82" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B83" t="s">
+        <v>342</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>333</v>
+      </c>
+      <c r="B84" t="s">
+        <v>334</v>
+      </c>
+      <c r="C84" t="s">
+        <v>335</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>336</v>
+      </c>
+      <c r="B85" t="s">
+        <v>337</v>
+      </c>
+      <c r="C85" t="s">
+        <v>338</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -2640,9 +2778,10 @@
     <hyperlink ref="A72" r:id="rId6" location="/s/z6VCe?path=%2F" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="A73" r:id="rId7" location="/s/O2MuV?path=%2F" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="A66" r:id="rId8" location="/s/eBpHK?path=%2F" display="https://pan.1flj.fun/ - /s/eBpHK?path=%2F" xr:uid="{CACA9B4C-7166-4348-8BBE-0658B7A85C21}"/>
+    <hyperlink ref="A83" r:id="rId9" xr:uid="{29378131-3883-42D3-82C5-18C9B422B005}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -2663,13 +2802,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B1" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="C1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/Sprider  爪巴/flj.xlsx
+++ b/Sprider  爪巴/flj.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Desktop\py文件\Sprider  爪巴\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9B6BBF-3074-4071-8023-DA0632DFBD35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C14EF5B-AB7F-4681-B873-097135A86C24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -608,537 +608,542 @@
     <t>福利姬芝麻酱</t>
   </si>
   <si>
+    <t xml:space="preserve"> https://pan.baidu.com/s/1QO5NvcNJr0UM31MHrti-1A</t>
+  </si>
+  <si>
+    <t>qbmd</t>
+  </si>
+  <si>
+    <t>福利姬桜井寧寧</t>
+  </si>
+  <si>
+    <t>回复12获取解压密码mY2rIjcO0SHA128a</t>
+  </si>
+  <si>
+    <t>福利姬少女映画</t>
+  </si>
+  <si>
+    <t>回复11获取解压密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1YRK78YometrXBrFAkhdHnQ</t>
+  </si>
+  <si>
+    <t>7rkx</t>
+  </si>
+  <si>
+    <t>福利姬柚木Yuzuki</t>
+  </si>
+  <si>
+    <t>回复8获取解压密码</t>
+  </si>
+  <si>
+    <t>5f4y</t>
+  </si>
+  <si>
+    <t>86z4</t>
+  </si>
+  <si>
+    <t>34es</t>
+  </si>
+  <si>
+    <t>福利姬习呆呆</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1Xn5EfqELoCmbeL0A6iXGnQ</t>
+  </si>
+  <si>
+    <t>dr3t</t>
+  </si>
+  <si>
+    <t>福利姬过期米线线喵</t>
+  </si>
+  <si>
+    <t>回复1获取解压密码RoQwYh0OsHgQlfbu</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/xg4sM?path=%2F</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>福利姬ATFMaker</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/vX1sW?path=%2F</t>
+  </si>
+  <si>
+    <t>福利姬萝莉邻座怪阿松（怪蜀黍的乖萝莉）</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/ko6CN?path=%2F</t>
+  </si>
+  <si>
+    <t>福利姬萌萌的奶卉</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/887TM?path=%2F</t>
+  </si>
+  <si>
+    <t>福利姬小蔡头喵喵</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/0y9cZ?path=%2F</t>
+  </si>
+  <si>
+    <t>福利姬小鸟酱</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/z6VCe?path=%2F</t>
+  </si>
+  <si>
+    <t>福利姬星之迟迟</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/O2MuV?path=%2F</t>
+  </si>
+  <si>
+    <t>福利姬赤酒央子</t>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/147J5xWXh4ZyEitYposSwDw</t>
+  </si>
+  <si>
+    <t>tmdp</t>
+  </si>
+  <si>
+    <t>福利姬喵喵er</t>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1IawsFJddfurEciewP3aydw</t>
+  </si>
+  <si>
+    <t>m8pq</t>
+  </si>
+  <si>
+    <t>福利姬叫我脚丫子</t>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1eLXqMBqDPkuoOLHOk-tHUw</t>
+  </si>
+  <si>
+    <t>ksys</t>
+  </si>
+  <si>
+    <t>福利姬猫性少女</t>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1mab9RfeSlSGra6ovsUCHyQ</t>
+  </si>
+  <si>
+    <t>jdvv</t>
+  </si>
+  <si>
+    <t>福利姬眼酱大魔王</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/eBpHK?path=%2F</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬JK邪魔暖暖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复75获取解压密码</t>
+  </si>
+  <si>
+    <t>回复74获取解压密码</t>
+  </si>
+  <si>
+    <t>回复73获取解压密码</t>
+  </si>
+  <si>
+    <t>回复72获取解压密码</t>
+  </si>
+  <si>
+    <t>回复71获取解压密码</t>
+  </si>
+  <si>
+    <t>回复70获取解压密码</t>
+  </si>
+  <si>
+    <t>回复69获取解压密码</t>
+  </si>
+  <si>
+    <t>回复68获取解压密码</t>
+  </si>
+  <si>
+    <t>回复67获取解压密码</t>
+  </si>
+  <si>
+    <t>回复66获取解压密码</t>
+  </si>
+  <si>
+    <t>回复65获取解压密码</t>
+  </si>
+  <si>
+    <t>回复64获取解压密码</t>
+  </si>
+  <si>
+    <t>回复13获取解压密码BtwR1AyNHSxIzXTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复14获取解压密码9owiZ4Iu8TtOYjdq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复15获取解压密码ErLXcwsvstP8iIX3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复16获取解压密码MfmOI6CIXlY8qOIm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://pan.baidu.com/s/1ty2xqre10FbajwQsBYT4Ow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t882</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复2获取解压密码6B4jzulTGhw0UYrr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬Shika小鹿鹿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1K6ldwaIowMJr1UYCf2RFow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p3f9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复3获取解压密码YmYdqnod1lNM4E90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬麻花酱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pg0s</t>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1SvFx3qVkVFR8vSZvmuhK_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬きょう肉肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复78获取解压密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1C-BlyvljbqkcVtUjMFahWw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6p1p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬runa</t>
+  </si>
+  <si>
+    <t>回复77获取解压密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1Bnqby1gRUbjSLDFu1vTwrQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬铭铭Kizami</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复76获取解压密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/15AULEi-0Jsd2FBTUGGbZEg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88wn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推女郎合集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复80获取解压密码</t>
+  </si>
+  <si>
+    <t>福利姬利世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2kak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1OCc1znkHh5-eSHZRHH9a3g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1OyElOIh84ZUTo8o2-rd5dg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ueWr1bnwBr281KlF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myku</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IW5PyuWWRj4VDz17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bo8zgC4nLjIAgYZK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O1yk0ZAgcGfdMlOX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1DZmPtFzEewL42i7wRBKKuQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3vfh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬原来是茜公举殿下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复4获取解压密码fCduSQdW4az8ZPfj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1QCtWb4ifOAIIkvs4bG4sQw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8ngt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬元气小奈音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复5获取解压密码9jDIz0V6KckRBYgv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1ARAZcR2d6OxONyphespE5Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复6获取解压密码9b2IExfQyKFFEbtZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1bkpLMmbwGySgnaD_QpLM0g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬饲育系少女X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复7获取解压密码BnTwjMks1Q2IsHSG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1iIvLK0lFLDbbvekRqIbNpA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬完具少女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复9获取解压密码3P84QeQyn6eKaP9Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复79获取解压密码E2UPvn5h7u3JfvvO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-7  ueWr1bnwBr281KlF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-14  IW5PyuWWRj4VDz17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-21  bo8zgC4nLjIAgYZK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22-27  O1yk0ZAgcGfdMlOX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复17获取解压密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复18获取解压密码82MgxIM1lvatNWPV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复19获取解压密码nJjf59mI40MsxWRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复20获取解压密码0py0PcPjoWeVTMAq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复22获取解压密码w1Ik5wEePGGd9UGS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复21获取解压密码8SI9dva0gJTZYWdY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复23获取解压密码bqWJPVkUhQtWcMQk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复24获取解压密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1xuGLgQIGzQQfogLiQjhDZQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1fo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1XDs6OeZhFpbQlt6kZWA8_g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬西尔酱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/14knP0lamwq4RYkpcVI1_xQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s736</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬白袜袜格罗丫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1wueCdFolc_K_Cz_ADefebQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9rhx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻豆合集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>madou.in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复82获取解压密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1-5HYa8H3tMIFj3OWjTgJlw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tnhv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬面饼仙儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复81获取解压密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdcv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬由衣酱yu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1iARO_caYg_nQJXJZewiq1A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7a09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>福利姬我是你可爱的小猫</t>
-  </si>
-  <si>
-    <t>cdcv</t>
-  </si>
-  <si>
-    <t>福利姬由衣酱yu1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://pan.baidu.com/s/1QO5NvcNJr0UM31MHrti-1A</t>
-  </si>
-  <si>
-    <t>qbmd</t>
-  </si>
-  <si>
-    <t>福利姬桜井寧寧</t>
-  </si>
-  <si>
-    <t>回复12获取解压密码mY2rIjcO0SHA128a</t>
-  </si>
-  <si>
-    <t>福利姬少女映画</t>
-  </si>
-  <si>
-    <t>回复11获取解压密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1YRK78YometrXBrFAkhdHnQ</t>
-  </si>
-  <si>
-    <t>7rkx</t>
-  </si>
-  <si>
-    <t>福利姬柚木Yuzuki</t>
-  </si>
-  <si>
-    <t>回复8获取解压密码</t>
-  </si>
-  <si>
-    <t>5f4y</t>
-  </si>
-  <si>
-    <t>86z4</t>
-  </si>
-  <si>
-    <t>34es</t>
-  </si>
-  <si>
-    <t>福利姬习呆呆</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1Xn5EfqELoCmbeL0A6iXGnQ</t>
-  </si>
-  <si>
-    <t>dr3t</t>
-  </si>
-  <si>
-    <t>福利姬过期米线线喵</t>
-  </si>
-  <si>
-    <t>回复1获取解压密码RoQwYh0OsHgQlfbu</t>
-  </si>
-  <si>
-    <t>https://pan.1flj.fun/#/s/xg4sM?path=%2F</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>福利姬ATFMaker</t>
-  </si>
-  <si>
-    <t>https://pan.1flj.fun/#/s/vX1sW?path=%2F</t>
-  </si>
-  <si>
-    <t>福利姬萝莉邻座怪阿松（怪蜀黍的乖萝莉）</t>
-  </si>
-  <si>
-    <t>https://pan.1flj.fun/#/s/ko6CN?path=%2F</t>
-  </si>
-  <si>
-    <t>福利姬萌萌的奶卉</t>
-  </si>
-  <si>
-    <t>https://pan.1flj.fun/#/s/887TM?path=%2F</t>
-  </si>
-  <si>
-    <t>福利姬小蔡头喵喵</t>
-  </si>
-  <si>
-    <t>https://pan.1flj.fun/#/s/0y9cZ?path=%2F</t>
-  </si>
-  <si>
-    <t>福利姬小鸟酱</t>
-  </si>
-  <si>
-    <t>https://pan.1flj.fun/#/s/z6VCe?path=%2F</t>
-  </si>
-  <si>
-    <t>福利姬星之迟迟</t>
-  </si>
-  <si>
-    <t>https://pan.1flj.fun/#/s/O2MuV?path=%2F</t>
-  </si>
-  <si>
-    <t>福利姬赤酒央子</t>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/147J5xWXh4ZyEitYposSwDw</t>
-  </si>
-  <si>
-    <t>tmdp</t>
-  </si>
-  <si>
-    <t>福利姬喵喵er</t>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/1IawsFJddfurEciewP3aydw</t>
-  </si>
-  <si>
-    <t>m8pq</t>
-  </si>
-  <si>
-    <t>福利姬叫我脚丫子</t>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/1eLXqMBqDPkuoOLHOk-tHUw</t>
-  </si>
-  <si>
-    <t>ksys</t>
-  </si>
-  <si>
-    <t>福利姬猫性少女</t>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/1mab9RfeSlSGra6ovsUCHyQ</t>
-  </si>
-  <si>
-    <t>jdvv</t>
-  </si>
-  <si>
-    <t>福利姬眼酱大魔王</t>
-  </si>
-  <si>
-    <t>https://pan.1flj.fun/#/s/eBpHK?path=%2F</t>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬JK邪魔暖暖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复75获取解压密码</t>
-  </si>
-  <si>
-    <t>回复74获取解压密码</t>
-  </si>
-  <si>
-    <t>回复73获取解压密码</t>
-  </si>
-  <si>
-    <t>回复72获取解压密码</t>
-  </si>
-  <si>
-    <t>回复71获取解压密码</t>
-  </si>
-  <si>
-    <t>回复70获取解压密码</t>
-  </si>
-  <si>
-    <t>回复69获取解压密码</t>
-  </si>
-  <si>
-    <t>回复68获取解压密码</t>
-  </si>
-  <si>
-    <t>回复67获取解压密码</t>
-  </si>
-  <si>
-    <t>回复66获取解压密码</t>
-  </si>
-  <si>
-    <t>回复65获取解压密码</t>
-  </si>
-  <si>
-    <t>回复64获取解压密码</t>
-  </si>
-  <si>
-    <t>回复13获取解压密码BtwR1AyNHSxIzXTM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复14获取解压密码9owiZ4Iu8TtOYjdq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复15获取解压密码ErLXcwsvstP8iIX3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复16获取解压密码MfmOI6CIXlY8qOIm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://pan.baidu.com/s/1ty2xqre10FbajwQsBYT4Ow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t882</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复2获取解压密码6B4jzulTGhw0UYrr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬Shika小鹿鹿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1K6ldwaIowMJr1UYCf2RFow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p3f9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复3获取解压密码YmYdqnod1lNM4E90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬麻花酱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pg0s</t>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/1SvFx3qVkVFR8vSZvmuhK_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬きょう肉肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复78获取解压密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/1C-BlyvljbqkcVtUjMFahWw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6p1p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬runa</t>
-  </si>
-  <si>
-    <t>回复77获取解压密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/1Bnqby1gRUbjSLDFu1vTwrQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t850</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬铭铭Kizami</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复76获取解压密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/15AULEi-0Jsd2FBTUGGbZEg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88wn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推女郎合集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复80获取解压密码</t>
-  </si>
-  <si>
-    <t>福利姬利世</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2kak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/1OCc1znkHh5-eSHZRHH9a3g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1OyElOIh84ZUTo8o2-rd5dg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ueWr1bnwBr281KlF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myku</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IW5PyuWWRj4VDz17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bo8zgC4nLjIAgYZK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O1yk0ZAgcGfdMlOX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1DZmPtFzEewL42i7wRBKKuQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3vfh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬原来是茜公举殿下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复4获取解压密码fCduSQdW4az8ZPfj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1QCtWb4ifOAIIkvs4bG4sQw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8ngt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬元气小奈音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复5获取解压密码9jDIz0V6KckRBYgv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1ARAZcR2d6OxONyphespE5Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复6获取解压密码9b2IExfQyKFFEbtZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1bkpLMmbwGySgnaD_QpLM0g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬饲育系少女X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复7获取解压密码BnTwjMks1Q2IsHSG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1iIvLK0lFLDbbvekRqIbNpA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬完具少女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复9获取解压密码3P84QeQyn6eKaP9Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复79获取解压密码E2UPvn5h7u3JfvvO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-7  ueWr1bnwBr281KlF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-14  IW5PyuWWRj4VDz17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15-21  bo8zgC4nLjIAgYZK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22-27  O1yk0ZAgcGfdMlOX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复17获取解压密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复18获取解压密码82MgxIM1lvatNWPV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复19获取解压密码nJjf59mI40MsxWRU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复20获取解压密码0py0PcPjoWeVTMAq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复22获取解压密码w1Ik5wEePGGd9UGS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复21获取解压密码8SI9dva0gJTZYWdY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复23获取解压密码bqWJPVkUhQtWcMQk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复24获取解压密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1xuGLgQIGzQQfogLiQjhDZQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1fo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1XDs6OeZhFpbQlt6kZWA8_g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬西尔酱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/14knP0lamwq4RYkpcVI1_xQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s736</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬白袜袜格罗丫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pan.baidu.com/s/1wueCdFolc_K_Cz_ADefebQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9rhx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻豆合集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>madou.in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复82获取解压密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://pan.baidu.com/s/1-5HYa8H3tMIFj3OWjTgJlw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tnhv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬面饼仙儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复81获取解压密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1244,7 +1249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1255,6 +1260,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1538,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2138,7 +2144,7 @@
         <v>166</v>
       </c>
       <c r="D42" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2152,7 +2158,7 @@
         <v>169</v>
       </c>
       <c r="D43" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2166,7 +2172,7 @@
         <v>172</v>
       </c>
       <c r="D44" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2180,7 +2186,7 @@
         <v>175</v>
       </c>
       <c r="D45" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2194,7 +2200,7 @@
         <v>178</v>
       </c>
       <c r="D46" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2208,7 +2214,7 @@
         <v>181</v>
       </c>
       <c r="D47" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2222,7 +2228,7 @@
         <v>184</v>
       </c>
       <c r="D48" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2236,7 +2242,7 @@
         <v>187</v>
       </c>
       <c r="D49" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2253,16 +2259,16 @@
         <v>191</v>
       </c>
       <c r="E50" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F50" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G50" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H50" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2276,495 +2282,495 @@
         <v>194</v>
       </c>
       <c r="D51" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>195</v>
+        <v>342</v>
       </c>
       <c r="B52" t="s">
-        <v>196</v>
+        <v>343</v>
       </c>
       <c r="C52" t="s">
-        <v>197</v>
+        <v>344</v>
       </c>
       <c r="D52" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B53" t="s">
-        <v>198</v>
-      </c>
-      <c r="C53" t="s">
-        <v>199</v>
+        <v>340</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="D53" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B54" t="s">
-        <v>330</v>
-      </c>
-      <c r="C54" t="s">
-        <v>332</v>
+        <v>325</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>327</v>
       </c>
       <c r="D54" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B55" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D55" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
+        <v>286</v>
+      </c>
+      <c r="B56" t="s">
         <v>291</v>
       </c>
-      <c r="B56" t="s">
-        <v>296</v>
-      </c>
       <c r="C56" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D56" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="G56" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B57" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D57" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B58" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D58" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B59" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D59" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B60" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D60" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B61" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D61" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B62" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D62" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B63" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D63" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B64" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D64" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B65" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D65" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B66" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C66" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D66" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B67" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C67" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D67" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B68" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C68" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D68" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B69" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" t="s">
         <v>219</v>
       </c>
-      <c r="C69" t="s">
-        <v>224</v>
-      </c>
       <c r="D69" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B70" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C70" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D70" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B71" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C71" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D71" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B72" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C72" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D72" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B73" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C73" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D73" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B74" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C74" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D74" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B75" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C75" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D75" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B76" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C76" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D76" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B77" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C77" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D77" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C78" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B79" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B80" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C80" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B81" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B82" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B83" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B84" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C84" t="s">
+        <v>330</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B85" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C85" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -2802,13 +2808,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/Sprider  爪巴/flj.xlsx
+++ b/Sprider  爪巴/flj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Desktop\py文件\Sprider  爪巴\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB483B1-D814-4855-871E-0D436493BFB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B52A91-0A1B-4B9A-907D-89C8BFEFE0F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2076" windowWidth="20292" windowHeight="8952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2076" windowWidth="20292" windowHeight="8952" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="福利姬" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="344">
   <si>
     <t>提取码</t>
   </si>
@@ -1254,6 +1254,12 @@
   <si>
     <t>XGFzoqbLmEMWkO2R</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6ZmOFKnzcMyuODMu</t>
+  </si>
+  <si>
+    <t>色骑士网盘福利1.21</t>
   </si>
 </sst>
 </file>
@@ -1672,7 +1678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
@@ -2847,10 +2853,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E932CD3-47AA-4296-9C43-3406898B60DC}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2870,161 +2876,169 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="B3" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B4" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>294</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B11" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B12" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B16" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B19" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B20" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>322</v>
       </c>
     </row>

--- a/Sprider  爪巴/flj.xlsx
+++ b/Sprider  爪巴/flj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Desktop\py文件\Sprider  爪巴\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B52A91-0A1B-4B9A-907D-89C8BFEFE0F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6216946-5525-4EB1-88CD-2A92BED8A69C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="2076" windowWidth="20292" windowHeight="8952" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1073,193 +1073,198 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>色骑士网盘福利1.15</t>
+  </si>
+  <si>
+    <t>色骑士网盘福利1.14</t>
+  </si>
+  <si>
+    <t>色骑士网盘福利1.13</t>
+  </si>
+  <si>
+    <t>色骑士网盘福利1.12</t>
+  </si>
+  <si>
+    <t>色骑士网盘福利1.11</t>
+  </si>
+  <si>
+    <t>色骑士网盘福利1.10</t>
+  </si>
+  <si>
+    <t>色骑士网盘福利1.9</t>
+  </si>
+  <si>
+    <t>色骑士网盘福利1.8</t>
+  </si>
+  <si>
+    <t>色骑士网盘福利1.7</t>
+  </si>
+  <si>
+    <t>色骑士网盘福利1.6</t>
+  </si>
+  <si>
+    <t>色骑士网盘福利1.5</t>
+  </si>
+  <si>
+    <t>色骑士网盘福利1.3</t>
+  </si>
+  <si>
+    <t>色骑士网盘福利1.2</t>
+  </si>
+  <si>
+    <t>色骑士网盘福利1.1</t>
+  </si>
+  <si>
+    <t>色骑士网盘福利12.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬FSS（冯珊珊）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬皮皮娘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬快点亲亲我吖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬软软趴在床单上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬押尾猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬工口小妖精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复32获取解压密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬ATFMaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬小鸟酱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬隔壁小姐姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色骑士网盘福利1.17</t>
+  </si>
+  <si>
+    <t>nHswgHBdfJToF7GY</t>
+  </si>
+  <si>
+    <t>Fuae0UJ8tcA4zlaI</t>
+  </si>
+  <si>
+    <t>m5AIzOEfQu85Dq3F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5SkNxwlRlIo4AXSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sRDUhEbrHmuqcW6K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g1PitwqCaMhtVe3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JfUm02aLoB6ZxeAz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9jFLLdIzxg1GhMhv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色骑士网盘福利1.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色骑士网盘福利1.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ykmlzzRuMoFlwOex</t>
+  </si>
+  <si>
+    <t>xECpNdObi50Jnecx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6us6UFuSA8XDrYmv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2LgzRtvHJTcBr08w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7XeDjuuHkpWd5em</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬糯美子Mini</t>
+  </si>
+  <si>
+    <t>回复103获取解压密码</t>
+  </si>
+  <si>
+    <t>福利姬水淼</t>
+  </si>
+  <si>
+    <t>回复104获取解压密码</t>
+  </si>
+  <si>
+    <t>色骑士网盘福利1.20</t>
+  </si>
+  <si>
+    <t>zF0OYYK3bt4EdevY</t>
+  </si>
+  <si>
+    <t>XGFzoqbLmEMWkO2R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6ZmOFKnzcMyuODMu</t>
+  </si>
+  <si>
+    <t>色骑士网盘福利1.21</t>
+  </si>
+  <si>
+    <t>6N98IVPQojNmCVJu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mh2aE0rh556RNdP7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N2nqqixka8rSOTVU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>STJx487zZngVSS8y</t>
-  </si>
-  <si>
-    <t>色骑士网盘福利1.15</t>
-  </si>
-  <si>
-    <t>N2nqqixka8rSOTVU</t>
-  </si>
-  <si>
-    <t>色骑士网盘福利1.14</t>
-  </si>
-  <si>
-    <t>色骑士网盘福利1.13</t>
-  </si>
-  <si>
-    <t>色骑士网盘福利1.12</t>
-  </si>
-  <si>
-    <t>Mh2aE0rh556RNdP7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5M19I8WufYDK1qee</t>
-  </si>
-  <si>
-    <t>6N98IVPQojNmCVJu</t>
-  </si>
-  <si>
-    <t>色骑士网盘福利1.11</t>
-  </si>
-  <si>
-    <t>色骑士网盘福利1.10</t>
-  </si>
-  <si>
-    <t>色骑士网盘福利1.9</t>
-  </si>
-  <si>
-    <t>色骑士网盘福利1.8</t>
-  </si>
-  <si>
-    <t>色骑士网盘福利1.7</t>
-  </si>
-  <si>
-    <t>色骑士网盘福利1.6</t>
-  </si>
-  <si>
-    <t>色骑士网盘福利1.5</t>
-  </si>
-  <si>
-    <t>色骑士网盘福利1.3</t>
-  </si>
-  <si>
-    <t>色骑士网盘福利1.2</t>
-  </si>
-  <si>
-    <t>色骑士网盘福利1.1</t>
-  </si>
-  <si>
-    <t>色骑士网盘福利12.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬FSS（冯珊珊）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬皮皮娘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬快点亲亲我吖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬软软趴在床单上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬押尾猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬工口小妖精</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复32获取解压密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬ATFMaker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬小鸟酱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬隔壁小姐姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>色骑士网盘福利1.17</t>
-  </si>
-  <si>
-    <t>nHswgHBdfJToF7GY</t>
-  </si>
-  <si>
-    <t>Fuae0UJ8tcA4zlaI</t>
-  </si>
-  <si>
-    <t>m5AIzOEfQu85Dq3F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5SkNxwlRlIo4AXSC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sRDUhEbrHmuqcW6K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g1PitwqCaMhtVe3s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JfUm02aLoB6ZxeAz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9jFLLdIzxg1GhMhv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>色骑士网盘福利1.19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>色骑士网盘福利1.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ykmlzzRuMoFlwOex</t>
-  </si>
-  <si>
-    <t>xECpNdObi50Jnecx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6us6UFuSA8XDrYmv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2LgzRtvHJTcBr08w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7XeDjuuHkpWd5em</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬糯美子Mini</t>
-  </si>
-  <si>
-    <t>回复103获取解压密码</t>
-  </si>
-  <si>
-    <t>福利姬水淼</t>
-  </si>
-  <si>
-    <t>回复104获取解压密码</t>
-  </si>
-  <si>
-    <t>色骑士网盘福利1.20</t>
-  </si>
-  <si>
-    <t>zF0OYYK3bt4EdevY</t>
-  </si>
-  <si>
-    <t>XGFzoqbLmEMWkO2R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6ZmOFKnzcMyuODMu</t>
-  </si>
-  <si>
-    <t>色骑士网盘福利1.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1929,7 +1934,7 @@
         <v>82</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C22" t="s">
         <v>147</v>
@@ -1995,7 +2000,7 @@
         <v>75</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C28" t="s">
         <v>258</v>
@@ -2072,10 +2077,10 @@
         <v>68</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C35" t="s">
         <v>310</v>
-      </c>
-      <c r="C35" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2138,7 +2143,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C41" t="s">
         <v>59</v>
@@ -2292,7 +2297,7 @@
         <v>26</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -2340,7 +2345,7 @@
         <v>16</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
@@ -2406,7 +2411,7 @@
         <v>4</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2494,7 +2499,7 @@
         <v>100</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C73" t="s">
         <v>114</v>
@@ -2538,7 +2543,7 @@
         <v>100</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C77" t="s">
         <v>110</v>
@@ -2829,19 +2834,19 @@
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C106" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C107" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2856,7 +2861,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2876,170 +2881,170 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>287</v>
       </c>
       <c r="B7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>293</v>
-      </c>
-      <c r="B10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>294</v>
-      </c>
       <c r="B11" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B12" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B13" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B14" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B15" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B16" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B17" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B18" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B19" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B20" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B21" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B22" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
